--- a/Text/Дипломная работа/Части диплома/Расчёт экономической эффективности.xlsx
+++ b/Text/Дипломная работа/Части диплома/Расчёт экономической эффективности.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04e6ebed4306f91a/Документы/Диплом/graduate-work/Text/Дипломная работа/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04e6ebed4306f91a/Документы/Диплом/graduate-work/Text/Дипломная работа/Части диплома/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="8_{FD0D56E7-9E47-414B-9620-C88AE7705AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BBF8450-04A2-4B67-9CF7-53614AF41C00}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="8_{FD0D56E7-9E47-414B-9620-C88AE7705AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A196072-9024-43A3-99CB-304FC3052AD6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6A01CEAE-4D3D-4C73-8D2B-27CCE0D80367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A01CEAE-4D3D-4C73-8D2B-27CCE0D80367}"/>
   </bookViews>
   <sheets>
     <sheet name="Стоимость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -324,9 +327,6 @@
     <t>Сканер отпечатков пальцев FPM10A</t>
   </si>
   <si>
-    <t>Мембранная клавиатура 16x16</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/32874565775.html?spm=a2g0s.9042311.0.0.264d33edM25y4h</t>
   </si>
   <si>
@@ -366,9 +366,6 @@
     <t>https://aliexpress.ru/item/33038600944.html?spm=a2g0o.productlist.0.0.419d2cdcRVEch1&amp;s=p&amp;ad_pvid=202005240721153859348858914580004687806_2&amp;algo_pvid=f9bcfdc6-e8e1-43cd-9146-ae05bd3293ea&amp;algo_expid=f9bcfdc6-e8e1-43cd-9146-ae05bd3293ea-1&amp;btsid=0b8b034e15903300752145706e6aef&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
-    <t>Перемычка 2x 2,54 мм</t>
-  </si>
-  <si>
     <t>Макетная плата MB-102</t>
   </si>
   <si>
@@ -502,6 +499,12 @@
   </si>
   <si>
     <t>Монтаж элементов</t>
+  </si>
+  <si>
+    <t>Перемычка 2x2,54 мм</t>
+  </si>
+  <si>
+    <t>Мембранная клавиатура 4x4</t>
   </si>
 </sst>
 </file>
@@ -659,22 +662,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -797,37 +800,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>81.755083533884402</c:v>
+                  <c:v>86.603187890202634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.136611545006318</c:v>
+                  <c:v>43.966356795042053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.057655329426055</c:v>
+                  <c:v>32.560945224700674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.043241497069541</c:v>
+                  <c:v>24.420708918525506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.809415337889142</c:v>
+                  <c:v>19.536567134820405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.174512781574283</c:v>
+                  <c:v>22.854123866958258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.863868098492244</c:v>
+                  <c:v>19.589249028821364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.772905507573231</c:v>
+                  <c:v>17.140592900218692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.687027117842874</c:v>
+                  <c:v>15.236082577972171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.325848331197413</c:v>
+                  <c:v>13.712474320174953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.841680301088557</c:v>
+                  <c:v>12.465885745613594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,37 +874,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>51.958991410362984</c:v>
+                  <c:v>52.150170648464162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.554721762011496</c:v>
+                  <c:v>27.71576550430861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.564373887971971</c:v>
+                  <c:v>18.477177002872406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.751184874766313</c:v>
+                  <c:v>16.561017645520852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.897535321914111</c:v>
+                  <c:v>13.248814116416682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.026951865511586</c:v>
+                  <c:v>11.040678430347235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.721398245971928</c:v>
+                  <c:v>9.463438654583344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7723346207466992</c:v>
+                  <c:v>8.2805088227604262</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4767032393021182</c:v>
+                  <c:v>8.9046684059998018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5290329153719071</c:v>
+                  <c:v>8.0142015653998211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7536662867017334</c:v>
+                  <c:v>9.6125741606418682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,6 +1114,545 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Окупаемость</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ЕП при +25%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Окупаемость!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>86.603187890202634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.966356795042053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.560945224700674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.420708918525506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.536567134820405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.854123866958258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.589249028821364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.140592900218692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.236082577972171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.712474320174953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.465885745613594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.427061933479129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D00-4E70-86F9-B3FD5647DE06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ЕП при +50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Окупаемость!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>52.150170648464162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.71576550430861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.477177002872406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.561017645520852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.248814116416682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.040678430347235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.463438654583344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2805088227604262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9046684059998018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0142015653998211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6125741606418682</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8115263139217124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D00-4E70-86F9-B3FD5647DE06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ПП при +25%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Окупаемость!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>86.603187890202634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.301593945101317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.867729296734211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.650796972550658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.320637578040525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.433864648367106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.371883984314662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.825398486275329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6225764322447365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6603187890202626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8730170809275117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2169323241835528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D00-4E70-86F9-B3FD5647DE06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ПП при +50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Окупаемость!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>52.150170648464162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.075085324232081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.383390216154719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.03754266211604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430034129692832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6916951080773597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4500243783520235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5187713310580202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7944634053849065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2150170648464158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7409246044058326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3458475540386798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1D00-4E70-86F9-B3FD5647DE06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1680534383"/>
+        <c:axId val="1133507487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1680534383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133507487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1133507487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680534383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -1138,7 +1680,547 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1674,6 +2756,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552061</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>155509</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FD6E6F-9C40-4026-9167-0EADCF93C5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1981,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F7277C-E9E5-4B74-A2AA-2E78B2A6D140}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2709,7 +3827,7 @@
     </row>
     <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="2">
         <v>6</v>
@@ -2764,7 +3882,7 @@
     </row>
     <row r="42" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2909,7 +4027,7 @@
         <v>1.0815999999999999</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2928,7 +4046,7 @@
         <v>1.6223999999999998</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2947,7 +4065,7 @@
         <v>0.54079999999999995</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2966,12 +4084,12 @@
         <v>0.54079999999999995</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -2985,7 +4103,7 @@
         <v>0.70889999999999997</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3062,7 +4180,7 @@
     </row>
     <row r="58" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B58" s="13">
         <v>1</v>
@@ -3075,12 +4193,12 @@
         <v>46.77</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="13">
         <v>1</v>
@@ -3093,12 +4211,12 @@
         <v>102.31</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="13">
         <v>1</v>
@@ -3111,12 +4229,12 @@
         <v>97.2</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B61" s="13">
         <v>1</v>
@@ -3130,12 +4248,12 @@
         <v>18.416</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" s="13">
         <v>1</v>
@@ -3148,12 +4266,12 @@
         <v>132.27000000000001</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" s="13">
         <v>1</v>
@@ -3169,7 +4287,7 @@
     </row>
     <row r="64" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="13">
         <v>1</v>
@@ -3183,7 +4301,7 @@
         <v>159.59899999999999</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3209,7 +4327,7 @@
     </row>
     <row r="68" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B68" s="13">
         <v>80</v>
@@ -3225,7 +4343,7 @@
     </row>
     <row r="69" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="13">
         <v>1</v>
@@ -3240,7 +4358,7 @@
     </row>
     <row r="70" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="13">
         <v>2</v>
@@ -3255,7 +4373,7 @@
     </row>
     <row r="71" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" s="13">
         <v>1</v>
@@ -3272,7 +4390,7 @@
     </row>
     <row r="72" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13">
         <v>1</v>
@@ -3288,7 +4406,7 @@
     </row>
     <row r="73" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B73" s="13">
         <v>1</v>
@@ -3303,7 +4421,7 @@
     </row>
     <row r="74" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B74" s="13">
         <v>2</v>
@@ -3319,7 +4437,7 @@
     </row>
     <row r="75" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" s="13">
         <v>1</v>
@@ -3335,7 +4453,7 @@
     </row>
     <row r="76" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B76" s="13">
         <v>3</v>
@@ -3350,11 +4468,11 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="7">
         <f>SUM(D68:D76)</f>
         <v>804.46210000000019</v>
@@ -3440,18 +4558,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="20">
         <v>10</v>
@@ -3463,7 +4581,7 @@
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="20">
         <v>5</v>
@@ -3475,7 +4593,7 @@
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="20">
         <v>2</v>
@@ -3487,7 +4605,7 @@
     </row>
     <row r="5" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -3499,7 +4617,7 @@
     </row>
     <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="20">
         <v>4</v>
@@ -3511,7 +4629,7 @@
     </row>
     <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="20">
         <v>3</v>
@@ -3523,7 +4641,7 @@
     </row>
     <row r="8" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="20">
         <v>4</v>
@@ -3535,7 +4653,7 @@
     </row>
     <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="20">
         <v>15</v>
@@ -3547,7 +4665,7 @@
     </row>
     <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="20">
         <v>5</v>
@@ -3559,7 +4677,7 @@
     </row>
     <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="20">
         <v>1</v>
@@ -3571,7 +4689,7 @@
     </row>
     <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" s="20">
         <v>10</v>
@@ -3583,7 +4701,7 @@
     </row>
     <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="20">
         <f>10+2+3+5</f>
@@ -3595,10 +4713,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="26"/>
+      <c r="A14" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="30"/>
       <c r="C14" s="20">
         <f xml:space="preserve"> SUM(C2:C13)</f>
         <v>320</v>
@@ -3630,18 +4748,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="22">
         <v>0.22</v>
@@ -3653,7 +4771,7 @@
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="23">
         <v>5.0999999999999997E-2</v>
@@ -3665,7 +4783,7 @@
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="22">
         <v>2.9000000000000001E-2</v>
@@ -3677,7 +4795,7 @@
     </row>
     <row r="5" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="22">
         <v>2E-3</v>
@@ -3688,10 +4806,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="C6" s="20">
         <f>SUM(C2:C5)</f>
         <v>20536</v>
@@ -3713,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2AA4D2-B735-4B57-AB8E-7E96A864771B}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3732,610 +4850,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.25 + 3100 - G3) / A3</f>
-        <v>81.755083533884402</v>
-      </c>
-      <c r="C3" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K3) /A3</f>
-        <v>51.958991410362984</v>
-      </c>
-      <c r="D3" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.25 + 3100 - G$17)/A3</f>
-        <v>81.755083533884402</v>
-      </c>
-      <c r="E3" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A3</f>
-        <v>51.958991410362984</v>
-      </c>
-      <c r="G3" s="27">
-        <f>2120.12+H3+I3</f>
+      <c r="B3" s="27">
+        <f xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G3) / A3</f>
+        <v>86.603187890202634</v>
+      </c>
+      <c r="C3" s="27">
+        <f xml:space="preserve"> 99320 / (3100*0.5 + 3100 - K3) /A3</f>
+        <v>52.150170648464162</v>
+      </c>
+      <c r="D3" s="27">
+        <f xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G$17)/A3</f>
+        <v>86.603187890202634</v>
+      </c>
+      <c r="E3" s="27">
+        <f xml:space="preserve"> 99320 / (3100*0.5 + 3100 - H$17) /A3</f>
+        <v>52.150170648464162</v>
+      </c>
+      <c r="G3" s="25">
+        <f t="shared" ref="G3:G14" si="0">2120.12+H3+I3</f>
         <v>2728.16</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <f>C22</f>
         <v>308.04000000000002</v>
       </c>
-      <c r="I3" s="27">
-        <f>300</f>
+      <c r="I3" s="25">
+        <f>D22</f>
         <v>300</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25">
         <f>2120.12+L3+M3</f>
-        <v>2845.5</v>
-      </c>
-      <c r="L3" s="27">
+        <v>2745.5</v>
+      </c>
+      <c r="L3" s="25">
         <f>C21</f>
         <v>325.38</v>
       </c>
-      <c r="M3" s="27">
-        <v>400</v>
+      <c r="M3" s="25">
+        <f>D21</f>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="31">
-        <f t="shared" ref="B4:B12" si="0" xml:space="preserve"> 93760 / (3100*0.25 + 3100 - G4) / A4</f>
-        <v>51.136611545006318</v>
-      </c>
-      <c r="C4" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K4) /A4</f>
-        <v>28.554721762011496</v>
-      </c>
-      <c r="D4" s="31">
-        <f t="shared" ref="D4:D14" si="1" xml:space="preserve"> 93760 / (3100*0.25 + 3100 - G$17)/A4</f>
-        <v>40.877541766942201</v>
-      </c>
-      <c r="E4" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A4</f>
-        <v>25.979495705181492</v>
-      </c>
-      <c r="G4" s="27">
-        <f>2120.12+H4+I4</f>
-        <v>2958.24</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="B4" s="27">
+        <f t="shared" ref="B4:B14" si="1" xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G4) / A4</f>
+        <v>43.966356795042053</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" ref="C4:C14" si="2" xml:space="preserve"> 99320 / (3100*0.5 + 3100 - K4) /A4</f>
+        <v>27.71576550430861</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D14" si="3" xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G$17)/A4</f>
+        <v>43.301593945101317</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E14" si="4" xml:space="preserve"> 99320 / (3100*0.5 + 3100 - H$17) /A4</f>
+        <v>26.075085324232081</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" si="0"/>
+        <v>2745.5</v>
+      </c>
+      <c r="H4" s="25">
+        <f>C21</f>
+        <v>325.38</v>
+      </c>
+      <c r="I4" s="25">
+        <f>D21</f>
+        <v>300</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25">
+        <f t="shared" ref="K4:K14" si="5">2120.12+L4+M4</f>
+        <v>2858.24</v>
+      </c>
+      <c r="L4" s="25">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="I4" s="27">
-        <v>400</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27">
-        <f t="shared" ref="K4:K14" si="2">2120.12+L4+M4</f>
-        <v>3008.24</v>
-      </c>
-      <c r="L4" s="27">
-        <f>C20</f>
-        <v>438.12</v>
-      </c>
-      <c r="M4" s="27">
-        <v>450</v>
+      <c r="M4" s="25">
+        <f>D20</f>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="31">
-        <f t="shared" si="0"/>
-        <v>36.057655329426055</v>
-      </c>
-      <c r="C5" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K5) /A5</f>
-        <v>21.564373887971971</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="B5" s="27">
         <f t="shared" si="1"/>
-        <v>27.251694511294801</v>
-      </c>
-      <c r="E5" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A5</f>
-        <v>17.319663803454329</v>
-      </c>
-      <c r="G5" s="27">
-        <f>2120.12+H5+I5</f>
-        <v>3008.24</v>
-      </c>
-      <c r="H5" s="27">
+        <v>32.560945224700674</v>
+      </c>
+      <c r="C5" s="27">
+        <f t="shared" si="2"/>
+        <v>18.477177002872406</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" si="3"/>
+        <v>28.867729296734211</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="4"/>
+        <v>17.383390216154719</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="0"/>
+        <v>2858.24</v>
+      </c>
+      <c r="H5" s="25">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="I5" s="27">
-        <v>450</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27">
-        <f t="shared" si="2"/>
-        <v>3200.6959999999999</v>
-      </c>
-      <c r="L5" s="27">
-        <f>C19</f>
-        <v>630.57600000000002</v>
-      </c>
-      <c r="M5" s="27">
-        <v>450</v>
+      <c r="I5" s="25">
+        <f>D20</f>
+        <v>300</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25">
+        <f t="shared" si="5"/>
+        <v>2858.24</v>
+      </c>
+      <c r="L5" s="25">
+        <f>C20</f>
+        <v>438.12</v>
+      </c>
+      <c r="M5" s="25">
+        <f>D20</f>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="31">
-        <f t="shared" si="0"/>
-        <v>27.043241497069541</v>
-      </c>
-      <c r="C6" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K6) /A6</f>
-        <v>16.751184874766313</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="B6" s="27">
         <f t="shared" si="1"/>
-        <v>20.438770883471101</v>
-      </c>
-      <c r="E6" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A6</f>
-        <v>12.989747852590746</v>
-      </c>
-      <c r="G6" s="27">
-        <f>2120.12+H6+I6</f>
-        <v>3008.24</v>
-      </c>
-      <c r="H6" s="27">
+        <v>24.420708918525506</v>
+      </c>
+      <c r="C6" s="27">
+        <f t="shared" si="2"/>
+        <v>16.561017645520852</v>
+      </c>
+      <c r="D6" s="27">
+        <f t="shared" si="3"/>
+        <v>21.650796972550658</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="4"/>
+        <v>13.03754266211604</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="0"/>
+        <v>2858.24</v>
+      </c>
+      <c r="H6" s="25">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="I6" s="27">
-        <v>450</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27">
-        <f t="shared" si="2"/>
-        <v>3250.6959999999999</v>
-      </c>
-      <c r="L6" s="27">
+      <c r="I6" s="25">
+        <f>D20</f>
+        <v>300</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25">
+        <f t="shared" si="5"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="L6" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M6" s="27">
-        <v>500</v>
+      <c r="M6" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="31">
-        <f t="shared" si="0"/>
-        <v>27.809415337889142</v>
-      </c>
-      <c r="C7" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K7) /A7</f>
-        <v>13.897535321914111</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="B7" s="27">
         <f t="shared" si="1"/>
-        <v>16.351016706776882</v>
-      </c>
-      <c r="E7" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A7</f>
-        <v>10.391798282072596</v>
-      </c>
-      <c r="G7" s="27">
-        <f>2120.12+H7+I7</f>
-        <v>3200.6959999999999</v>
-      </c>
-      <c r="H7" s="27">
+        <v>19.536567134820405</v>
+      </c>
+      <c r="C7" s="27">
+        <f t="shared" si="2"/>
+        <v>13.248814116416682</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="3"/>
+        <v>17.320637578040525</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="4"/>
+        <v>10.430034129692832</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="0"/>
+        <v>2858.24</v>
+      </c>
+      <c r="H7" s="25">
+        <f>C20</f>
+        <v>438.12</v>
+      </c>
+      <c r="I7" s="25">
+        <f>D20</f>
+        <v>300</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25">
+        <f t="shared" si="5"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="L7" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I7" s="27">
-        <v>450</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27">
-        <f t="shared" si="2"/>
-        <v>3300.6959999999999</v>
-      </c>
-      <c r="L7" s="27">
-        <f>C19</f>
-        <v>630.57600000000002</v>
-      </c>
-      <c r="M7" s="27">
-        <v>550</v>
+      <c r="M7" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="31">
-        <f t="shared" si="0"/>
-        <v>23.174512781574283</v>
-      </c>
-      <c r="C8" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K8) /A8</f>
-        <v>12.026951865511586</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="B8" s="27">
         <f t="shared" si="1"/>
-        <v>13.6258472556474</v>
-      </c>
-      <c r="E8" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A8</f>
-        <v>8.6598319017271645</v>
-      </c>
-      <c r="G8" s="27">
-        <f>2120.12+H8+I8</f>
-        <v>3200.6959999999999</v>
-      </c>
-      <c r="H8" s="27">
+        <v>22.854123866958258</v>
+      </c>
+      <c r="C8" s="27">
+        <f t="shared" si="2"/>
+        <v>11.040678430347235</v>
+      </c>
+      <c r="D8" s="27">
+        <f t="shared" si="3"/>
+        <v>14.433864648367106</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="4"/>
+        <v>8.6916951080773597</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H8" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I8" s="27">
-        <v>450</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27">
-        <f t="shared" si="2"/>
-        <v>3350.6959999999999</v>
-      </c>
-      <c r="L8" s="27">
+      <c r="I8" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25">
+        <f t="shared" si="5"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="L8" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M8" s="27">
-        <v>600</v>
+      <c r="M8" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="31">
-        <f t="shared" si="0"/>
-        <v>19.863868098492244</v>
-      </c>
-      <c r="C9" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K9) /A9</f>
-        <v>10.721398245971928</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="B9" s="27">
         <f t="shared" si="1"/>
-        <v>11.679297647697771</v>
-      </c>
-      <c r="E9" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A9</f>
-        <v>7.422713058623283</v>
-      </c>
-      <c r="G9" s="27">
-        <f>2120.12+H9+I9</f>
-        <v>3200.6959999999999</v>
-      </c>
-      <c r="H9" s="27">
+        <v>19.589249028821364</v>
+      </c>
+      <c r="C9" s="27">
+        <f t="shared" si="2"/>
+        <v>9.463438654583344</v>
+      </c>
+      <c r="D9" s="27">
+        <f t="shared" si="3"/>
+        <v>12.371883984314662</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="4"/>
+        <v>7.4500243783520235</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H9" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I9" s="27">
-        <v>450</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27">
-        <f t="shared" si="2"/>
-        <v>3400.6959999999999</v>
-      </c>
-      <c r="L9" s="27">
+      <c r="I9" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25">
+        <f t="shared" si="5"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="L9" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M9" s="27">
-        <v>650</v>
+      <c r="M9" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="31">
-        <f t="shared" si="0"/>
-        <v>18.772905507573231</v>
-      </c>
-      <c r="C10" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K10) /A10</f>
-        <v>9.7723346207466992</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="B10" s="27">
         <f t="shared" si="1"/>
-        <v>10.21938544173555</v>
-      </c>
-      <c r="E10" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A10</f>
-        <v>6.494873926295373</v>
-      </c>
-      <c r="G10" s="27">
-        <f>2120.12+H10+I10</f>
-        <v>3250.6959999999999</v>
-      </c>
-      <c r="H10" s="27">
+        <v>17.140592900218692</v>
+      </c>
+      <c r="C10" s="27">
+        <f t="shared" si="2"/>
+        <v>8.2805088227604262</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="3"/>
+        <v>10.825398486275329</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="4"/>
+        <v>6.5187713310580202</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H10" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I10" s="27">
-        <v>500</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27">
-        <f t="shared" si="2"/>
-        <v>3450.6959999999999</v>
-      </c>
-      <c r="L10" s="27">
+      <c r="I10" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25">
+        <f t="shared" si="5"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="L10" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M10" s="27">
-        <v>700</v>
+      <c r="M10" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="31">
-        <f t="shared" si="0"/>
-        <v>16.687027117842874</v>
-      </c>
-      <c r="C11" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K11) /A11</f>
-        <v>9.4767032393021182</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="B11" s="27">
         <f t="shared" si="1"/>
-        <v>9.0838981704316009</v>
-      </c>
-      <c r="E11" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A11</f>
-        <v>5.7732212678181094</v>
-      </c>
-      <c r="G11" s="27">
-        <f>2120.12+H11+I11</f>
-        <v>3250.6959999999999</v>
-      </c>
-      <c r="H11" s="27">
+        <v>15.236082577972171</v>
+      </c>
+      <c r="C11" s="27">
+        <f t="shared" si="2"/>
+        <v>8.9046684059998018</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" si="3"/>
+        <v>9.6225764322447365</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="4"/>
+        <v>5.7944634053849065</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H11" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I11" s="27">
-        <v>500</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27">
-        <f t="shared" si="2"/>
-        <v>3550.6959999999999</v>
-      </c>
-      <c r="L11" s="27">
-        <f>C19</f>
-        <v>630.57600000000002</v>
-      </c>
-      <c r="M11" s="27">
-        <v>800</v>
+      <c r="I11" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25">
+        <f t="shared" si="5"/>
+        <v>3410.7</v>
+      </c>
+      <c r="L11" s="25">
+        <f>C18</f>
+        <v>890.57999999999993</v>
+      </c>
+      <c r="M11" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="31">
-        <f t="shared" si="0"/>
-        <v>16.325848331197413</v>
-      </c>
-      <c r="C12" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K12) /A12</f>
-        <v>8.5290329153719071</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="B12" s="27">
         <f t="shared" si="1"/>
-        <v>8.175508353388441</v>
-      </c>
-      <c r="E12" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A12</f>
-        <v>5.195899141036298</v>
-      </c>
-      <c r="G12" s="27">
-        <f>2120.12+H12+I12</f>
-        <v>3300.6959999999999</v>
-      </c>
-      <c r="H12" s="27">
+        <v>13.712474320174953</v>
+      </c>
+      <c r="C12" s="27">
+        <f t="shared" si="2"/>
+        <v>8.0142015653998211</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" si="3"/>
+        <v>8.6603187890202626</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="4"/>
+        <v>5.2150170648464158</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H12" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I12" s="27">
-        <v>550</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27">
-        <f t="shared" si="2"/>
-        <v>3550.6959999999999</v>
-      </c>
-      <c r="L12" s="27">
-        <f>C19</f>
-        <v>630.57600000000002</v>
-      </c>
-      <c r="M12" s="27">
-        <v>800</v>
+      <c r="I12" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25">
+        <f t="shared" si="5"/>
+        <v>3410.7</v>
+      </c>
+      <c r="L12" s="25">
+        <f>C18</f>
+        <v>890.57999999999993</v>
+      </c>
+      <c r="M12" s="25">
+        <f>D19</f>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.25 + 3100 - G13) / A13</f>
-        <v>14.841680301088557</v>
-      </c>
-      <c r="C13" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K13) /A13</f>
-        <v>7.7536662867017334</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="B13" s="27">
         <f t="shared" si="1"/>
-        <v>7.4322803212622182</v>
-      </c>
-      <c r="E13" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A13</f>
-        <v>4.7235446736693625</v>
-      </c>
-      <c r="G13" s="27">
-        <f>2120.12+H13+I13</f>
-        <v>3300.6959999999999</v>
-      </c>
-      <c r="H13" s="27">
+        <v>12.465885745613594</v>
+      </c>
+      <c r="C13" s="27">
+        <f t="shared" si="2"/>
+        <v>9.6125741606418682</v>
+      </c>
+      <c r="D13" s="27">
+        <f t="shared" si="3"/>
+        <v>7.8730170809275117</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="4"/>
+        <v>4.7409246044058326</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H13" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I13" s="27">
-        <v>550</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27">
-        <f t="shared" si="2"/>
-        <v>3550.6959999999999</v>
-      </c>
-      <c r="L13" s="27">
-        <f>C19</f>
-        <v>630.57600000000002</v>
-      </c>
-      <c r="M13" s="27">
-        <v>800</v>
+      <c r="I13" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25">
+        <f t="shared" si="5"/>
+        <v>3710.7</v>
+      </c>
+      <c r="L13" s="25">
+        <f>C18</f>
+        <v>890.57999999999993</v>
+      </c>
+      <c r="M13" s="25">
+        <f>D18</f>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.25 + 3100 - G14) / A14</f>
-        <v>13.604873609331177</v>
-      </c>
-      <c r="C14" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - K14) /A14</f>
-        <v>9.3093450891616012</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="B14" s="27">
         <f t="shared" si="1"/>
-        <v>6.8129236278237002</v>
-      </c>
-      <c r="E14" s="31">
-        <f xml:space="preserve"> 93760 / (3100*0.5 + 3100 - H$17) /A14</f>
-        <v>4.3299159508635823</v>
-      </c>
-      <c r="G14" s="27">
-        <f>2120.12+H14+I14</f>
-        <v>3300.6959999999999</v>
-      </c>
-      <c r="H14" s="27">
+        <v>11.427061933479129</v>
+      </c>
+      <c r="C14" s="27">
+        <f t="shared" si="2"/>
+        <v>8.8115263139217124</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" si="3"/>
+        <v>7.2169323241835528</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="4"/>
+        <v>4.3458475540386798</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>3150.6959999999999</v>
+      </c>
+      <c r="H14" s="25">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I14" s="27">
-        <v>550</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27">
-        <f t="shared" si="2"/>
-        <v>3810.7</v>
-      </c>
-      <c r="L14" s="27">
+      <c r="I14" s="25">
+        <f>D19</f>
+        <v>400</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25">
+        <f t="shared" si="5"/>
+        <v>3710.7</v>
+      </c>
+      <c r="L14" s="25">
         <f>C18</f>
         <v>890.57999999999993</v>
       </c>
-      <c r="M14" s="27">
-        <v>800</v>
+      <c r="M14" s="25">
+        <f>D18</f>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <v>2970.58</v>
       </c>
       <c r="C17" s="11">
@@ -4345,127 +5486,127 @@
       <c r="D17" s="11">
         <v>1000</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="G17" s="28">
+      <c r="E17" s="25"/>
+      <c r="G17" s="26">
         <f>2120.12+300+C22</f>
         <v>2728.16</v>
       </c>
-      <c r="H17" s="28">
-        <f>2120.12+400+C21</f>
-        <v>2845.5</v>
+      <c r="H17" s="26">
+        <f>2120.12+D21+C21</f>
+        <v>2745.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>4452.8999999999996</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:C24" si="3">B18/A18</f>
+        <f t="shared" ref="C18:C24" si="6">B18/A18</f>
         <v>890.57999999999993</v>
       </c>
       <c r="D18" s="11">
         <v>700</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="25">
         <v>6305.76</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>630.57600000000002</v>
       </c>
       <c r="D19" s="11">
         <v>400</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>25</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <v>10953</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>438.12</v>
       </c>
       <c r="D20" s="11">
         <v>300</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>50</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <v>16269</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>325.38</v>
       </c>
       <c r="D21" s="11">
         <v>300</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>75</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="25">
         <v>23103</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>308.04000000000002</v>
       </c>
       <c r="D22" s="11">
         <v>300</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>100</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <v>28114.799999999999</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>281.14799999999997</v>
       </c>
       <c r="D23" s="11">
         <v>250</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>150</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="25">
         <v>40872.6</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>272.48399999999998</v>
       </c>
       <c r="D24" s="11">
         <v>250</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Text/Дипломная работа/Части диплома/Расчёт экономической эффективности.xlsx
+++ b/Text/Дипломная работа/Части диплома/Расчёт экономической эффективности.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04e6ebed4306f91a/Документы/Диплом/graduate-work/Text/Дипломная работа/Части диплома/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="8_{FD0D56E7-9E47-414B-9620-C88AE7705AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A196072-9024-43A3-99CB-304FC3052AD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FD4368-A28C-4599-A495-8929136EBD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6A01CEAE-4D3D-4C73-8D2B-27CCE0D80367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A01CEAE-4D3D-4C73-8D2B-27CCE0D80367}"/>
   </bookViews>
   <sheets>
     <sheet name="Стоимость" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_Hlk38718042" localSheetId="0">Стоимость!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
   <si>
     <t>Элемент</t>
   </si>
@@ -505,17 +503,37 @@
   </si>
   <si>
     <t>Мембранная клавиатура 4x4</t>
+  </si>
+  <si>
+    <t>Элементы основной схемы</t>
+  </si>
+  <si>
+    <t>Общая стоимость элементов основной схемы:</t>
+  </si>
+  <si>
+    <t>Общая стоимость элементов для разработки:</t>
+  </si>
+  <si>
+    <t>Элементы необходимые для разработки</t>
+  </si>
+  <si>
+    <t>Итог:</t>
+  </si>
+  <si>
+    <t>Припой CF-10 63/37 0,8 мм</t>
+  </si>
+  <si>
+    <t>Флюс Solins ЛТИ-120 100 мл</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +573,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -564,7 +589,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -588,16 +613,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -606,46 +646,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,8 +678,52 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -677,6 +733,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3097,1444 +3162,1506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F7277C-E9E5-4B74-A2AA-2E78B2A6D140}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="83.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="83.28515625" style="6" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="83.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="37">
         <v>146.16</v>
       </c>
-      <c r="D2" s="7">
-        <f>B2*C2</f>
+      <c r="D3" s="37">
+        <f>B3*C3</f>
         <v>146.16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="37">
         <f>67.97/50</f>
         <v>1.3593999999999999</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D64" si="0">B3*C3</f>
+      <c r="D4" s="37">
+        <f t="shared" ref="D4:D65" si="0">B4*C4</f>
         <v>1.3593999999999999</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E4" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="37">
         <v>20.47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>20.47</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="37">
         <f>100.12/5</f>
         <v>20.024000000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>20.024000000000001</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="37">
         <f>63.58/10</f>
         <v>6.3579999999999997</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>6.3579999999999997</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="37">
         <f>47.5/20</f>
         <v>2.375</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="37">
         <f>39.47/20</f>
         <v>1.9735</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>1.9735</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="37">
         <f>105.24/5</f>
         <v>21.047999999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>42.095999999999997</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="37">
         <f>17.54/5</f>
         <v>3.508</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>3.508</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="37">
         <f>75.27/20</f>
         <v>3.7634999999999996</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="37">
         <f t="shared" si="0"/>
         <v>3.7634999999999996</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="37">
         <f>94.27/10</f>
         <v>9.4269999999999996</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="37">
         <f t="shared" si="0"/>
         <v>9.4269999999999996</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="37">
         <f>49.7/10</f>
         <v>4.9700000000000006</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="37">
         <f t="shared" si="0"/>
         <v>4.9700000000000006</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="37">
         <v>19</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="37">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="19">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="37">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" ref="D15" si="1">B15*C15</f>
+      <c r="D16" s="37">
+        <f>B16*C16</f>
         <v>8</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E16" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="37">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="37">
         <v>8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E18" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="37">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" ref="D18" si="2">B18*C18</f>
+      <c r="D19" s="37">
+        <f>B19*C19</f>
         <v>7</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="37">
         <v>24</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="37">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B21" s="19">
         <v>3</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="37">
         <f>4/100</f>
         <v>0.04</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="37">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E21" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="11">
-        <f t="shared" ref="C21:C29" si="3">55.54/100</f>
+      <c r="C22" s="37">
+        <f t="shared" ref="C22:C30" si="1">55.54/100</f>
         <v>0.5554</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="37">
         <f t="shared" si="0"/>
         <v>1.1108</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E22" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B23" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="11">
-        <f t="shared" si="3"/>
+      <c r="C23" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="37">
         <f t="shared" si="0"/>
         <v>0.5554</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E23" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="19">
         <v>1</v>
       </c>
-      <c r="C23" s="11">
-        <f t="shared" si="3"/>
+      <c r="C24" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="37">
         <f t="shared" si="0"/>
         <v>0.5554</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="19">
         <v>1</v>
       </c>
-      <c r="C24" s="11">
-        <f t="shared" si="3"/>
+      <c r="C25" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="37">
         <f t="shared" si="0"/>
         <v>0.5554</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E25" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="11">
-        <f t="shared" si="3"/>
+      <c r="C26" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="37">
         <f t="shared" si="0"/>
         <v>2.2216</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="19">
         <v>4</v>
       </c>
-      <c r="C26" s="11">
-        <f t="shared" si="3"/>
+      <c r="C27" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="37">
         <f t="shared" si="0"/>
         <v>2.2216</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B28" s="19">
         <v>1</v>
       </c>
-      <c r="C27" s="11">
-        <f t="shared" si="3"/>
+      <c r="C28" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="37">
         <f t="shared" si="0"/>
         <v>0.5554</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B29" s="19">
         <v>6</v>
       </c>
-      <c r="C28" s="11">
-        <f t="shared" si="3"/>
+      <c r="C29" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="37">
         <f t="shared" si="0"/>
         <v>3.3323999999999998</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E29" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="11">
-        <f t="shared" si="3"/>
+      <c r="C30" s="37">
+        <f t="shared" si="1"/>
         <v>0.5554</v>
       </c>
-      <c r="D29" s="7">
-        <f>B29*C29</f>
+      <c r="D30" s="37">
+        <f>B30*C30</f>
         <v>0.5554</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E30" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B31" s="19">
         <v>1</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="37">
         <f>217.77/50</f>
         <v>4.3554000000000004</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="37">
         <f t="shared" si="0"/>
         <v>4.3554000000000004</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E31" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="19">
         <v>1</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C32" s="37">
         <f>217.77/50</f>
         <v>4.3554000000000004</v>
       </c>
-      <c r="D31" s="7">
-        <f>B31*C31</f>
+      <c r="D32" s="37">
+        <f>B32*C32</f>
         <v>4.3554000000000004</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E32" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B33" s="19">
         <v>2</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C33" s="37">
         <f>70.16/100</f>
         <v>0.7016</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="37">
         <f t="shared" si="0"/>
         <v>1.4032</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B34" s="19">
         <v>2</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C34" s="37">
         <f>70.16/100</f>
         <v>0.7016</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="37">
         <f t="shared" si="0"/>
         <v>1.4032</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E34" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B35" s="19">
         <v>2</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C35" s="37">
         <f>145.43/100</f>
         <v>1.4543000000000001</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="37">
         <f t="shared" si="0"/>
         <v>2.9086000000000003</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E35" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B36" s="19">
         <v>4</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C36" s="37">
         <f>90.62/100</f>
         <v>0.90620000000000001</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="37">
         <f t="shared" si="0"/>
         <v>3.6248</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E36" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B37" s="19">
         <v>4</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C37" s="37">
         <f>97.2/100</f>
         <v>0.97199999999999998</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="37">
         <f t="shared" si="0"/>
         <v>3.8879999999999999</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E37" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="17">
         <v>1</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C38" s="37">
         <f>50.43/100</f>
         <v>0.50429999999999997</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="37">
         <f t="shared" si="0"/>
         <v>0.50429999999999997</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E38" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B39" s="19">
         <v>2</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C39" s="37">
         <f>108.89/200</f>
         <v>0.54444999999999999</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="37">
         <f t="shared" si="0"/>
         <v>1.0889</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E39" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="17">
         <v>6</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C40" s="37">
         <f>59.93/100</f>
         <v>0.59929999999999994</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="37">
         <f t="shared" si="0"/>
         <v>3.5957999999999997</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E40" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B41" s="17">
         <v>1</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C41" s="37">
         <v>120</v>
       </c>
-      <c r="D40" s="7">
-        <f>B40*C40</f>
+      <c r="D41" s="37">
+        <f>B41*C41</f>
         <v>120</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E41" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="17">
         <v>1</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C42" s="37">
         <v>50.43</v>
       </c>
-      <c r="D41" s="7">
-        <f>B41*C41</f>
+      <c r="D42" s="37">
+        <f>B42*C42</f>
         <v>50.43</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E42" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="17">
         <v>1</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C43" s="37">
         <v>29.24</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="37">
         <f t="shared" si="0"/>
         <v>29.24</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E43" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="17">
         <v>1</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C44" s="37">
         <f>54.81/10</f>
         <v>5.4809999999999999</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="37">
         <f t="shared" si="0"/>
         <v>5.4809999999999999</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E44" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45" s="17">
         <v>1</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C45" s="37">
         <f>54.81/10</f>
         <v>5.4809999999999999</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="37">
         <f t="shared" si="0"/>
         <v>5.4809999999999999</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E45" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="17">
         <v>1</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C46" s="37">
         <f>103.77/10</f>
         <v>10.376999999999999</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="37">
         <f t="shared" si="0"/>
         <v>10.376999999999999</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E46" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="17">
         <v>2</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C47" s="37">
         <f>127.89/5</f>
         <v>25.577999999999999</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="37">
         <f t="shared" si="0"/>
         <v>51.155999999999999</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E47" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="17">
         <v>2</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C48" s="37">
         <f>21.93/50</f>
         <v>0.43859999999999999</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D48" s="37">
         <f t="shared" si="0"/>
         <v>0.87719999999999998</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E48" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="17">
         <v>1</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C49" s="37">
         <v>12</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E49" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="17">
         <v>1</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C50" s="37">
         <f>54.08/10/40*8</f>
         <v>1.0815999999999999</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="37">
         <f t="shared" si="0"/>
         <v>1.0815999999999999</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E50" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="17">
         <v>2</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C51" s="37">
         <f>54.08/10/40*6</f>
         <v>0.81119999999999992</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="37">
         <f t="shared" si="0"/>
         <v>1.6223999999999998</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E51" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="17">
         <v>1</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C52" s="37">
         <f>54.08/10/40*4</f>
         <v>0.54079999999999995</v>
       </c>
-      <c r="D51" s="7">
-        <f>B51*C51</f>
+      <c r="D52" s="37">
+        <f>B52*C52</f>
         <v>0.54079999999999995</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E52" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C53" s="37">
         <f>54.08/10/40*2</f>
         <v>0.27039999999999997</v>
       </c>
-      <c r="D52" s="7">
-        <f>B52*C52</f>
+      <c r="D53" s="37">
+        <f>B53*C53</f>
         <v>0.54079999999999995</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E53" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="17">
         <v>1</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C54" s="37">
         <f>70.89/100</f>
         <v>0.70889999999999997</v>
       </c>
-      <c r="D53" s="7">
-        <f>B53*C53</f>
+      <c r="D54" s="37">
+        <f>B54*C54</f>
         <v>0.70889999999999997</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E54" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+    <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B55" s="27">
         <v>2</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C55" s="37">
         <v>8</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E55" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B56" s="27">
         <v>2</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C56" s="37">
         <v>8</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E56" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B57" s="27">
         <v>1</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C57" s="37">
         <v>50.43</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="37">
         <f t="shared" si="0"/>
         <v>50.43</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E57" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B58" s="27">
         <v>1</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C58" s="37">
         <v>401.19</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="37">
         <f t="shared" si="0"/>
         <v>401.19</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E58" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B59" s="27">
         <v>1</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C59" s="37">
         <v>46.77</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="37">
         <f t="shared" si="0"/>
         <v>46.77</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E59" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B60" s="27">
         <v>1</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C60" s="37">
         <v>102.31</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="37">
         <f t="shared" si="0"/>
         <v>102.31</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E60" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B61" s="27">
         <v>1</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C61" s="37">
         <v>97.2</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="37">
         <f t="shared" si="0"/>
         <v>97.2</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E61" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+    <row r="62" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B62" s="27">
         <v>1</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C62" s="37">
         <f>92.08/5</f>
         <v>18.416</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="37">
         <f t="shared" si="0"/>
         <v>18.416</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E62" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B63" s="27">
         <v>1</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C63" s="37">
         <v>132.27000000000001</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="37">
         <f t="shared" si="0"/>
         <v>132.27000000000001</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E63" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B64" s="27">
         <v>1</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C64" s="37">
         <v>360</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="37">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+      <c r="E64" s="23"/>
+    </row>
+    <row r="65" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B65" s="27">
         <v>1</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C65" s="37">
         <f>1595.99/10</f>
         <v>159.59899999999999</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="37">
         <f t="shared" si="0"/>
         <v>159.59899999999999</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E65" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D65" s="7">
-        <f>SUM(D2:D64)</f>
-        <v>2120.1170999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+    <row r="66" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B67" s="27">
         <v>80</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C67" s="38">
         <f>50.43/40</f>
         <v>1.26075</v>
       </c>
-      <c r="D68" s="11">
-        <f>B68*C68</f>
+      <c r="D67" s="29">
+        <f>B67*C67</f>
         <v>100.86</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B68" s="27">
         <v>1</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C68" s="38">
         <v>261.62</v>
       </c>
-      <c r="D69" s="11">
-        <f t="shared" ref="D69:D76" si="4">B69*C69</f>
+      <c r="D68" s="29">
+        <f t="shared" ref="D68:D75" si="2">B68*C68</f>
         <v>261.62</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B69" s="27">
         <v>2</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C69" s="38">
         <v>138.85</v>
       </c>
-      <c r="D70" s="11">
-        <f t="shared" si="4"/>
+      <c r="D69" s="29">
+        <f t="shared" si="2"/>
         <v>277.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B70" s="27">
         <v>1</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C70" s="38">
         <f>92.81/5</f>
         <v>18.562000000000001</v>
       </c>
-      <c r="D71" s="11">
-        <f t="shared" si="4"/>
+      <c r="D70" s="29">
+        <f t="shared" si="2"/>
         <v>18.562000000000001</v>
       </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B71" s="27">
         <v>1</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C71" s="38">
         <v>29.24</v>
       </c>
-      <c r="D72" s="11">
-        <f t="shared" si="4"/>
+      <c r="D71" s="29">
+        <f t="shared" si="2"/>
         <v>29.24</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B72" s="27">
         <v>1</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C72" s="38">
         <v>58.47</v>
       </c>
-      <c r="D73" s="11">
-        <f t="shared" si="4"/>
+      <c r="D72" s="29">
+        <f t="shared" si="2"/>
         <v>58.47</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+      <c r="E72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B73" s="27">
         <v>2</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C73" s="38">
         <f>54.81/10</f>
         <v>5.4809999999999999</v>
       </c>
-      <c r="D74" s="11">
-        <f t="shared" si="4"/>
+      <c r="D73" s="29">
+        <f t="shared" si="2"/>
         <v>10.962</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B74" s="27">
         <v>1</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C74" s="38">
         <f>223.62/5</f>
         <v>44.724000000000004</v>
       </c>
-      <c r="D75" s="11">
-        <f t="shared" si="4"/>
+      <c r="D74" s="29">
+        <f t="shared" si="2"/>
         <v>44.724000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B75" s="27">
         <v>3</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C75" s="38">
         <f>77.47/100</f>
         <v>0.77469999999999994</v>
       </c>
-      <c r="D76" s="11">
-        <f t="shared" si="4"/>
+      <c r="D75" s="29">
+        <f t="shared" si="2"/>
         <v>2.3240999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="7">
-        <f>SUM(D68:D76)</f>
-        <v>804.46210000000019</v>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="28">
+        <v>1</v>
+      </c>
+      <c r="C76" s="39">
+        <v>340</v>
+      </c>
+      <c r="D76" s="39">
+        <v>340</v>
+      </c>
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="28">
+        <v>1</v>
+      </c>
+      <c r="C77" s="39">
+        <v>130</v>
+      </c>
+      <c r="D77" s="39">
+        <v>130</v>
+      </c>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="29">
+        <f>SUM(D3:D65)</f>
+        <v>2120.1170999999999</v>
+      </c>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="29">
+        <f>SUM(D67:D77)</f>
+        <v>1274.4621000000002</v>
+      </c>
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="29">
+        <f>D78+D79</f>
+        <v>3394.5792000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A77:C77"/>
+  <mergeCells count="5">
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://aliexpress.ru/item/32808772590.html?spm=a2g0o.productlist.0.0.7dcd2eeaofqHPn&amp;algo_pvid=c39ac9b5-6daa-4f34-ae35-a81e17e4569b&amp;algo_expid=c39ac9b5-6daa-4f34-ae35-a81e17e4569b-4&amp;btsid=0b8b15f515902409924107652eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{8EA90C1A-C735-41EE-86E3-A6004B9F10F0}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://aliexpress.ru/item/32944301946.html?spm=a2g0o.productlist.0.0.9d233b63dd3ak5&amp;s=p&amp;ad_pvid=202005230638154718294210068700003574288_1&amp;algo_pvid=38894c23-04dd-4130-a0ef-c3e67d7a4054&amp;algo_expid=38894c23-04dd-4130-a0ef-c3e67d7a4054-0&amp;btsid=0b8b15f515902410955991343eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{152FBE71-B347-4503-96CC-41504B904BF9}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://aliexpress.ru/item/32598383117.html?spm=a2g0o.productlist.0.0.6a507cc6sufbPV&amp;algo_pvid=bcae3c5e-37e2-480c-89ec-78ac7a414b79&amp;algo_expid=bcae3c5e-37e2-480c-89ec-78ac7a414b79-3&amp;btsid=0b8b15f515902413359601994eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{339F11E0-B22E-4A6F-B0CE-9CB34B428E65}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://aliexpress.ru/item/32838124744.html?spm=a2g0o.productlist.0.0.42e39760Aok5mB&amp;s=p&amp;ad_pvid=20200523064316180571280072800003579506_1&amp;algo_pvid=17399249-3015-4a90-bc03-82d5bbefb910&amp;algo_expid=17399249-3015-4a90-bc03-82d5bbefb910-0&amp;btsid=0b8b15f515902413959482456eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{EA075BD2-BD52-4816-A076-40486E6A023C}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://aliexpress.ru/item/32845580765.html?spm=a2g0o.productlist.0.0.465c6b9bSTvuOE&amp;s=p&amp;ad_pvid=202005230644098565090043919200003580852_2&amp;algo_pvid=4ae73945-a696-401b-badf-a15ebeac9ba4&amp;algo_expid=4ae73945-a696-401b-badf-a15ebeac9ba4-1&amp;btsid=0b8b15f515902414494923100eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{822C0E0E-97CF-4D93-8812-C8DA8088D70D}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://aliexpress.ru/item/32948091423.html?spm=a2g0o.productlist.0.0.50137e29UtgW4p&amp;s=p&amp;ad_pvid=20200523064510392996251806300003581539_5&amp;algo_pvid=d42d7194-f100-4850-bd67-6f0e1acb701a&amp;algo_expid=d42d7194-f100-4850-bd67-6f0e1acb701a-4&amp;btsid=0b8b15f515902415100654085eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{635AB6D1-3E5E-498D-9545-EA7B668D87BA}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://aliexpress.ru/item/4000367473737.html?spm=a2g0o.productlist.0.0.2133468cI7U6uf&amp;algo_pvid=9929603d-680e-4828-b038-1973e49542e0&amp;algo_expid=9929603d-680e-4828-b038-1973e49542e0-8&amp;btsid=0b8b15f515902415925735342eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{97B28F24-02F0-463C-8A09-5E3FF48F304A}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://aliexpress.ru/item/4000907210022.html?spm=a2g0o.productlist.0.0.3b65d46col9cQw&amp;s=p&amp;ad_pvid=202005230647569781299129252420003583276_8&amp;algo_pvid=fc0595e3-1667-42dc-9188-16f02f1dc727&amp;algo_expid=fc0595e3-1667-42dc-9188-16f02f1dc727-7&amp;btsid=0b8b15f515902416764546949eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{60B715EA-636E-49EB-AE24-8F5427364C16}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://aliexpress.ru/item/33048896682.html?spm=a2g0o.productlist.0.0.64284857UK516B&amp;s=p&amp;ad_pvid=2020052306485011289635935663550003584257_7&amp;algo_pvid=30e1a65e-bd95-4d71-b0e7-e5c241d74b5d&amp;algo_expid=30e1a65e-bd95-4d71-b0e7-e5c241d74b5d-6&amp;btsid=0b8b15f515902417305067517eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F2CF7502-2411-4AF7-95A9-3A5AB2DEB8AD}"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://aliexpress.ru/item/32874808297.html?spm=a2g0o.productlist.0.0.620a68d8D9PmxY&amp;s=p&amp;ad_pvid=202005230650331235533996492640003578726_4&amp;algo_pvid=1f707ea0-432d-4622-b6b1-bea3bed20459&amp;algo_expid=1f707ea0-432d-4622-b6b1-bea3bed20459-3&amp;btsid=0b8b15f515902418330868243eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{E5E87F07-CC22-4F14-8E27-8C83D505977B}"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://aliexpress.ru/item/33043107098.html?spm=a2g0o.productlist.0.0.1d743018OWWYBO&amp;algo_pvid=e002187f-5395-4761-a526-77a2b88cd399&amp;algo_expid=e002187f-5395-4761-a526-77a2b88cd399-18&amp;btsid=0b8b15f515902419571518617eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{C3B18148-02D4-4527-BAD6-06C5A4AE6256}"/>
-    <hyperlink ref="E46" r:id="rId12" xr:uid="{DF87B85F-CC3E-4ED3-8160-B1617116098E}"/>
-    <hyperlink ref="E13" r:id="rId13" xr:uid="{455CDE3A-9236-460F-A61D-A0B8E086B292}"/>
-    <hyperlink ref="E47" r:id="rId14" display="https://aliexpress.ru/item/4000030081332.html?spm=a2g0o.productlist.0.0.52294fc6z8TSn5&amp;algo_pvid=443da3fd-a0c6-44d0-9c18-6a8b16277703&amp;algo_expid=443da3fd-a0c6-44d0-9c18-6a8b16277703-10&amp;btsid=0b8b15f515902423206613161eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{FF37DFD1-F4EE-4CFC-866F-FBCC96884F33}"/>
-    <hyperlink ref="E43" r:id="rId15" xr:uid="{0B092C36-3140-4E97-96A8-95CB959B86CF}"/>
-    <hyperlink ref="E44" r:id="rId16" xr:uid="{95195FCB-3D06-4A35-8C28-DB862B8219AD}"/>
-    <hyperlink ref="E45" r:id="rId17" display="https://aliexpress.ru/item/33050533308.html?spm=a2g0o.productlist.0.0.591f419fZBivJb&amp;s=p&amp;ad_pvid=20200524003101633931875486150002254226_1&amp;algo_pvid=10fafa17-7575-4808-a1e7-4a92163b67a7&amp;algo_expid=10fafa17-7575-4808-a1e7-4a92163b67a7-0&amp;btsid=0b8b158f15903054610166494e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{DEB52384-A684-4806-9226-0E01E22511D3}"/>
-    <hyperlink ref="E37" r:id="rId18" display="https://aliexpress.ru/item/33048439713.html?spm=a2g0o.productlist.0.0.13054256JyVvmA&amp;s=p&amp;ad_pvid=202005240032014591868125946460004349620_1&amp;algo_pvid=72616c28-5ac3-46ac-82dc-8f34579557ad&amp;algo_expid=72616c28-5ac3-46ac-82dc-8f34579557ad-0&amp;btsid=0b8b158f15903055213537367e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{23DF8E5B-A623-4971-B076-36C65EB548B3}"/>
-    <hyperlink ref="E38" r:id="rId19" display="https://aliexpress.ru/item/32826666254.html?spm=a2g0o.productlist.0.0.1bbe4edbnNwbFT&amp;algo_pvid=156e919e-e3ef-450a-9808-9026f9bf66cb&amp;algo_expid=156e919e-e3ef-450a-9808-9026f9bf66cb-8&amp;btsid=0b8b158f15903056062338877e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{D995DFD1-8CE5-432D-A2B3-050F77A8D08C}"/>
-    <hyperlink ref="E39" r:id="rId20" display="https://aliexpress.ru/item/32873227586.html?spm=a2g0o.productlist.0.0.2fa54a51luzcps&amp;s=p&amp;ad_pvid=202005240035048508726070138800004354392_3&amp;algo_pvid=3142830e-6fc8-437b-ab51-99794baa7552&amp;algo_expid=3142830e-6fc8-437b-ab51-99794baa7552-2&amp;btsid=0b8b158f15903057047852345e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{A6FDFD0B-FA3B-4693-91DE-DC169B1623FA}"/>
-    <hyperlink ref="E41" r:id="rId21" display="https://aliexpress.ru/item/33037738446.html?spm=a2g0o.productlist.0.0.c04e63181szbZW&amp;algo_pvid=d3d13fd0-9aff-40b2-a366-abdcf42b860a&amp;algo_expid=d3d13fd0-9aff-40b2-a366-abdcf42b860a-0&amp;btsid=0b8b034e15903060705011378e6ab2&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{32692D08-9D50-4D60-8CBA-DE3459CD9852}"/>
-    <hyperlink ref="E42" r:id="rId22" display="https://aliexpress.ru/item/32949445306.html?spm=a2g0o.productlist.0.0.79a94c5b8CVisr&amp;algo_pvid=ed93fb77-d24c-4e57-83c5-9640681a26df&amp;algo_expid=ed93fb77-d24c-4e57-83c5-9640681a26df-8&amp;btsid=0b8b034e15903061646182590e6ab2&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F600110A-0F4E-4F14-AD76-07ED71DC7F34}"/>
-    <hyperlink ref="E40" r:id="rId23" xr:uid="{738C3F65-2C1A-488C-ADF2-E2680BE43DE0}"/>
-    <hyperlink ref="E14" r:id="rId24" xr:uid="{DD1C6323-DE5E-4E2C-8250-2F0267858CDC}"/>
-    <hyperlink ref="E48" r:id="rId25" xr:uid="{757FB940-2373-44B4-9BD8-AAB263751194}"/>
-    <hyperlink ref="E54" r:id="rId26" xr:uid="{E8D01280-86E8-4B77-A62C-C599FFBFD91D}"/>
-    <hyperlink ref="E55" r:id="rId27" xr:uid="{F9B75C56-EAED-4ACD-8E1E-F1045332E823}"/>
-    <hyperlink ref="E16" r:id="rId28" xr:uid="{CF4D4C2F-C785-4F16-BA1C-6604309AAAF9}"/>
-    <hyperlink ref="E15" r:id="rId29" xr:uid="{EBCF899E-F583-48FC-BC42-FB27757B2897}"/>
-    <hyperlink ref="E17" r:id="rId30" xr:uid="{0A692136-4D35-4679-978C-9BD71D79D951}"/>
-    <hyperlink ref="E18" r:id="rId31" xr:uid="{7587CAA5-1D5C-4564-906C-1DAE8161D970}"/>
-    <hyperlink ref="E20" r:id="rId32" display="https://aliexpress.ru/item/32871123420.html?spm=a2g0o.productlist.0.0.10143259Voypr5&amp;algo_pvid=d6a25cc4-348d-46ab-ac09-0a4208893c39&amp;algo_expid=d6a25cc4-348d-46ab-ac09-0a4208893c39-0&amp;btsid=0b8b15d415903263366875482e4389&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{3B67CB10-8FC7-409F-9331-BC34D5CC7D49}"/>
-    <hyperlink ref="E21:E29" r:id="rId33" display="https://aliexpress.ru/item/32871123420.html?spm=a2g0o.productlist.0.0.10143259Voypr5&amp;algo_pvid=d6a25cc4-348d-46ab-ac09-0a4208893c39&amp;algo_expid=d6a25cc4-348d-46ab-ac09-0a4208893c39-0&amp;btsid=0b8b15d415903263366875482e4389&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{9887CCC2-16B0-43FA-96A7-08AADB22BB91}"/>
-    <hyperlink ref="E30" r:id="rId34" display="https://aliexpress.ru/item/32829517578.html?spm=a2g0o.productlist.0.0.645644f3krXIQ4&amp;algo_pvid=05732255-54d6-4e48-add5-d449e4c9d191&amp;algo_expid=05732255-54d6-4e48-add5-d449e4c9d191-1&amp;btsid=0b8b035c15903275399571840ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6634B7FC-90AE-4D87-A88C-04705EEBA14C}"/>
-    <hyperlink ref="E31" r:id="rId35" display="https://aliexpress.ru/item/32829517578.html?spm=a2g0o.productlist.0.0.645644f3krXIQ4&amp;algo_pvid=05732255-54d6-4e48-add5-d449e4c9d191&amp;algo_expid=05732255-54d6-4e48-add5-d449e4c9d191-1&amp;btsid=0b8b035c15903275399571840ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{95210DA6-72FC-407E-8AEC-AA19126C71A6}"/>
-    <hyperlink ref="E32" r:id="rId36" display="https://aliexpress.ru/item/32964553793.html?spm=a2g0o.productlist.0.0.5d97578bOi5flh&amp;algo_pvid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774&amp;algo_expid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774-8&amp;btsid=0b8b035c15903276788503191ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{C997B260-ADAD-44C3-A201-4209C05A758F}"/>
-    <hyperlink ref="E33" r:id="rId37" display="https://aliexpress.ru/item/32964553793.html?spm=a2g0o.productlist.0.0.5d97578bOi5flh&amp;algo_pvid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774&amp;algo_expid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774-8&amp;btsid=0b8b035c15903276788503191ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{97A6FC3C-E51F-417E-8352-1707E81DB65A}"/>
-    <hyperlink ref="E35" r:id="rId38" display="https://aliexpress.ru/item/32964553793.html?spm=a2g0o.productlist.0.0.5d97578bOi5flh&amp;algo_pvid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774&amp;algo_expid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774-8&amp;btsid=0b8b035c15903276788503191ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6BC4C072-CFA2-4B24-BFD8-5FC6392852B8}"/>
-    <hyperlink ref="E34" r:id="rId39" display="https://aliexpress.ru/item/33016966236.html?spm=a2g0o.productlist.0.0.786d4b8aaWhjxx&amp;algo_pvid=fe8c5866-3be0-4622-b634-cac42457f46b&amp;algo_expid=fe8c5866-3be0-4622-b634-cac42457f46b-9&amp;btsid=0b8b035c15903278444623684ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{97AAEEAE-3B99-42FA-9EE0-AFC9AD6F3576}"/>
-    <hyperlink ref="E36" r:id="rId40" display="https://aliexpress.ru/item/32903313311.html?spm=a2g0o.productlist.0.0.1a626bd5nLjCe2&amp;s=p&amp;ad_pvid=20200524064533383388000592670004654046_1&amp;algo_pvid=3df784c5-4f8f-4e17-a969-3a3c27617f16&amp;algo_expid=3df784c5-4f8f-4e17-a969-3a3c27617f16-0&amp;btsid=0b8b035c15903279329634318ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{60C3C7FD-BCD2-401A-B8D0-6172A0B210BB}"/>
-    <hyperlink ref="E56" r:id="rId41" display="https://aliexpress.ru/item/1806565095.html?spm=a2g0o.productlist.0.0.61fa70a2zCcxj6&amp;algo_pvid=1f60d4f3-4400-4395-9714-95593c44edc0&amp;algo_expid=1f60d4f3-4400-4395-9714-95593c44edc0-1&amp;btsid=0b8b158f15903283283927096e9021&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{A92298A9-0E30-49FC-8200-29766B63D5A5}"/>
-    <hyperlink ref="E57" r:id="rId42" xr:uid="{5F20CDB2-0D71-4558-82BE-2CC1B39435A5}"/>
-    <hyperlink ref="E58" r:id="rId43" xr:uid="{E8BC7494-2FE5-44E0-993B-BEC8AD1010B9}"/>
-    <hyperlink ref="E59" r:id="rId44" xr:uid="{1B4D6578-4CD7-4C59-B7F2-ED449B0A75A9}"/>
-    <hyperlink ref="E62" r:id="rId45" display="https://aliexpress.ru/item/4000924304797.html?spm=a2g0o.productlist.0.0.16ba7b52haCScV&amp;s=p&amp;ad_pvid=20200524071024927259689806100004682763_7&amp;algo_pvid=468f6634-d576-448c-bc4d-a292fd9a2c23&amp;algo_expid=468f6634-d576-448c-bc4d-a292fd9a2c23-6&amp;btsid=0b8b037215903294244892876e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{7D8E5E7E-863B-439D-B84F-4BBCBEC46FA1}"/>
-    <hyperlink ref="E64" r:id="rId46" display="https://aliexpress.ru/item/33019390820.html?spm=a2g0o.productlist.0.0.15487729SHf9sX&amp;algo_pvid=f2e570de-5409-4661-a790-3a3cbdfdc271&amp;algo_expid=f2e570de-5409-4661-a790-3a3cbdfdc271-13&amp;btsid=0b8b037215903291916481538e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{4D5281AB-1812-46F6-954A-BC204A05D0B4}"/>
-    <hyperlink ref="E60" r:id="rId47" display="https://aliexpress.ru/item/32897651120.html?spm=a2g0o.productlist.0.0.2bec4f04tTOXvo&amp;s=p&amp;ad_pvid=20200524071153935045963939430004676651_1&amp;algo_pvid=81249de0-876a-430c-ab36-7dc95307fb1a&amp;algo_expid=81249de0-876a-430c-ab36-7dc95307fb1a-0&amp;btsid=0b8b037215903295130423525e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F8EEFE76-6942-4005-BF9A-E1C838BA84A9}"/>
-    <hyperlink ref="E61" r:id="rId48" display="https://aliexpress.ru/item/4000389879469.html?spm=a2g0o.productlist.0.0.3fee3943aDXyuh&amp;s=p&amp;ad_pvid=2020052407123414318638294008510004681611_1&amp;algo_pvid=295fbcd0-d85e-4f67-a5b6-7017f0533ad9&amp;algo_expid=295fbcd0-d85e-4f67-a5b6-7017f0533ad9-0&amp;btsid=0b8b037215903295546703980e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F78D54CF-EF4B-4918-AF7F-821EC4B48D40}"/>
-    <hyperlink ref="E53" r:id="rId49" display="https://aliexpress.ru/item/33038600944.html?spm=a2g0o.productlist.0.0.419d2cdcRVEch1&amp;s=p&amp;ad_pvid=202005240721153859348858914580004687806_2&amp;algo_pvid=f9bcfdc6-e8e1-43cd-9146-ae05bd3293ea&amp;algo_expid=f9bcfdc6-e8e1-43cd-9146-ae05bd3293ea-1&amp;btsid=0b8b034e15903300752145706e6aef&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{A446FA79-4144-44EB-930B-E1053CB29305}"/>
-    <hyperlink ref="E49" r:id="rId50" xr:uid="{105BDBB3-ACE3-458A-9B59-7FB2720FCDCF}"/>
-    <hyperlink ref="E50:E52" r:id="rId51" display="https://aliexpress.ru/item/32878293371.html?spm=a2g0s.9042311.0.0.264d33edbISUGp" xr:uid="{F2748AED-2569-413B-AE6F-DAFAB986A9DC}"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://aliexpress.ru/item/32808772590.html?spm=a2g0o.productlist.0.0.7dcd2eeaofqHPn&amp;algo_pvid=c39ac9b5-6daa-4f34-ae35-a81e17e4569b&amp;algo_expid=c39ac9b5-6daa-4f34-ae35-a81e17e4569b-4&amp;btsid=0b8b15f515902409924107652eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{8EA90C1A-C735-41EE-86E3-A6004B9F10F0}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://aliexpress.ru/item/32944301946.html?spm=a2g0o.productlist.0.0.9d233b63dd3ak5&amp;s=p&amp;ad_pvid=202005230638154718294210068700003574288_1&amp;algo_pvid=38894c23-04dd-4130-a0ef-c3e67d7a4054&amp;algo_expid=38894c23-04dd-4130-a0ef-c3e67d7a4054-0&amp;btsid=0b8b15f515902410955991343eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{152FBE71-B347-4503-96CC-41504B904BF9}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://aliexpress.ru/item/32598383117.html?spm=a2g0o.productlist.0.0.6a507cc6sufbPV&amp;algo_pvid=bcae3c5e-37e2-480c-89ec-78ac7a414b79&amp;algo_expid=bcae3c5e-37e2-480c-89ec-78ac7a414b79-3&amp;btsid=0b8b15f515902413359601994eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{339F11E0-B22E-4A6F-B0CE-9CB34B428E65}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://aliexpress.ru/item/32838124744.html?spm=a2g0o.productlist.0.0.42e39760Aok5mB&amp;s=p&amp;ad_pvid=20200523064316180571280072800003579506_1&amp;algo_pvid=17399249-3015-4a90-bc03-82d5bbefb910&amp;algo_expid=17399249-3015-4a90-bc03-82d5bbefb910-0&amp;btsid=0b8b15f515902413959482456eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{EA075BD2-BD52-4816-A076-40486E6A023C}"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://aliexpress.ru/item/32845580765.html?spm=a2g0o.productlist.0.0.465c6b9bSTvuOE&amp;s=p&amp;ad_pvid=202005230644098565090043919200003580852_2&amp;algo_pvid=4ae73945-a696-401b-badf-a15ebeac9ba4&amp;algo_expid=4ae73945-a696-401b-badf-a15ebeac9ba4-1&amp;btsid=0b8b15f515902414494923100eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{822C0E0E-97CF-4D93-8812-C8DA8088D70D}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://aliexpress.ru/item/32948091423.html?spm=a2g0o.productlist.0.0.50137e29UtgW4p&amp;s=p&amp;ad_pvid=20200523064510392996251806300003581539_5&amp;algo_pvid=d42d7194-f100-4850-bd67-6f0e1acb701a&amp;algo_expid=d42d7194-f100-4850-bd67-6f0e1acb701a-4&amp;btsid=0b8b15f515902415100654085eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{635AB6D1-3E5E-498D-9545-EA7B668D87BA}"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://aliexpress.ru/item/4000367473737.html?spm=a2g0o.productlist.0.0.2133468cI7U6uf&amp;algo_pvid=9929603d-680e-4828-b038-1973e49542e0&amp;algo_expid=9929603d-680e-4828-b038-1973e49542e0-8&amp;btsid=0b8b15f515902415925735342eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{97B28F24-02F0-463C-8A09-5E3FF48F304A}"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://aliexpress.ru/item/4000907210022.html?spm=a2g0o.productlist.0.0.3b65d46col9cQw&amp;s=p&amp;ad_pvid=202005230647569781299129252420003583276_8&amp;algo_pvid=fc0595e3-1667-42dc-9188-16f02f1dc727&amp;algo_expid=fc0595e3-1667-42dc-9188-16f02f1dc727-7&amp;btsid=0b8b15f515902416764546949eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{60B715EA-636E-49EB-AE24-8F5427364C16}"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://aliexpress.ru/item/33048896682.html?spm=a2g0o.productlist.0.0.64284857UK516B&amp;s=p&amp;ad_pvid=2020052306485011289635935663550003584257_7&amp;algo_pvid=30e1a65e-bd95-4d71-b0e7-e5c241d74b5d&amp;algo_expid=30e1a65e-bd95-4d71-b0e7-e5c241d74b5d-6&amp;btsid=0b8b15f515902417305067517eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F2CF7502-2411-4AF7-95A9-3A5AB2DEB8AD}"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://aliexpress.ru/item/32874808297.html?spm=a2g0o.productlist.0.0.620a68d8D9PmxY&amp;s=p&amp;ad_pvid=202005230650331235533996492640003578726_4&amp;algo_pvid=1f707ea0-432d-4622-b6b1-bea3bed20459&amp;algo_expid=1f707ea0-432d-4622-b6b1-bea3bed20459-3&amp;btsid=0b8b15f515902418330868243eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{E5E87F07-CC22-4F14-8E27-8C83D505977B}"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://aliexpress.ru/item/33043107098.html?spm=a2g0o.productlist.0.0.1d743018OWWYBO&amp;algo_pvid=e002187f-5395-4761-a526-77a2b88cd399&amp;algo_expid=e002187f-5395-4761-a526-77a2b88cd399-18&amp;btsid=0b8b15f515902419571518617eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{C3B18148-02D4-4527-BAD6-06C5A4AE6256}"/>
+    <hyperlink ref="E47" r:id="rId12" xr:uid="{DF87B85F-CC3E-4ED3-8160-B1617116098E}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{455CDE3A-9236-460F-A61D-A0B8E086B292}"/>
+    <hyperlink ref="E48" r:id="rId14" display="https://aliexpress.ru/item/4000030081332.html?spm=a2g0o.productlist.0.0.52294fc6z8TSn5&amp;algo_pvid=443da3fd-a0c6-44d0-9c18-6a8b16277703&amp;algo_expid=443da3fd-a0c6-44d0-9c18-6a8b16277703-10&amp;btsid=0b8b15f515902423206613161eace3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{FF37DFD1-F4EE-4CFC-866F-FBCC96884F33}"/>
+    <hyperlink ref="E44" r:id="rId15" xr:uid="{0B092C36-3140-4E97-96A8-95CB959B86CF}"/>
+    <hyperlink ref="E45" r:id="rId16" xr:uid="{95195FCB-3D06-4A35-8C28-DB862B8219AD}"/>
+    <hyperlink ref="E46" r:id="rId17" display="https://aliexpress.ru/item/33050533308.html?spm=a2g0o.productlist.0.0.591f419fZBivJb&amp;s=p&amp;ad_pvid=20200524003101633931875486150002254226_1&amp;algo_pvid=10fafa17-7575-4808-a1e7-4a92163b67a7&amp;algo_expid=10fafa17-7575-4808-a1e7-4a92163b67a7-0&amp;btsid=0b8b158f15903054610166494e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{DEB52384-A684-4806-9226-0E01E22511D3}"/>
+    <hyperlink ref="E38" r:id="rId18" display="https://aliexpress.ru/item/33048439713.html?spm=a2g0o.productlist.0.0.13054256JyVvmA&amp;s=p&amp;ad_pvid=202005240032014591868125946460004349620_1&amp;algo_pvid=72616c28-5ac3-46ac-82dc-8f34579557ad&amp;algo_expid=72616c28-5ac3-46ac-82dc-8f34579557ad-0&amp;btsid=0b8b158f15903055213537367e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{23DF8E5B-A623-4971-B076-36C65EB548B3}"/>
+    <hyperlink ref="E39" r:id="rId19" display="https://aliexpress.ru/item/32826666254.html?spm=a2g0o.productlist.0.0.1bbe4edbnNwbFT&amp;algo_pvid=156e919e-e3ef-450a-9808-9026f9bf66cb&amp;algo_expid=156e919e-e3ef-450a-9808-9026f9bf66cb-8&amp;btsid=0b8b158f15903056062338877e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{D995DFD1-8CE5-432D-A2B3-050F77A8D08C}"/>
+    <hyperlink ref="E40" r:id="rId20" display="https://aliexpress.ru/item/32873227586.html?spm=a2g0o.productlist.0.0.2fa54a51luzcps&amp;s=p&amp;ad_pvid=202005240035048508726070138800004354392_3&amp;algo_pvid=3142830e-6fc8-437b-ab51-99794baa7552&amp;algo_expid=3142830e-6fc8-437b-ab51-99794baa7552-2&amp;btsid=0b8b158f15903057047852345e902b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{A6FDFD0B-FA3B-4693-91DE-DC169B1623FA}"/>
+    <hyperlink ref="E42" r:id="rId21" display="https://aliexpress.ru/item/33037738446.html?spm=a2g0o.productlist.0.0.c04e63181szbZW&amp;algo_pvid=d3d13fd0-9aff-40b2-a366-abdcf42b860a&amp;algo_expid=d3d13fd0-9aff-40b2-a366-abdcf42b860a-0&amp;btsid=0b8b034e15903060705011378e6ab2&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{32692D08-9D50-4D60-8CBA-DE3459CD9852}"/>
+    <hyperlink ref="E43" r:id="rId22" display="https://aliexpress.ru/item/32949445306.html?spm=a2g0o.productlist.0.0.79a94c5b8CVisr&amp;algo_pvid=ed93fb77-d24c-4e57-83c5-9640681a26df&amp;algo_expid=ed93fb77-d24c-4e57-83c5-9640681a26df-8&amp;btsid=0b8b034e15903061646182590e6ab2&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F600110A-0F4E-4F14-AD76-07ED71DC7F34}"/>
+    <hyperlink ref="E41" r:id="rId23" xr:uid="{738C3F65-2C1A-488C-ADF2-E2680BE43DE0}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{DD1C6323-DE5E-4E2C-8250-2F0267858CDC}"/>
+    <hyperlink ref="E49" r:id="rId25" xr:uid="{757FB940-2373-44B4-9BD8-AAB263751194}"/>
+    <hyperlink ref="E55" r:id="rId26" xr:uid="{E8D01280-86E8-4B77-A62C-C599FFBFD91D}"/>
+    <hyperlink ref="E56" r:id="rId27" xr:uid="{F9B75C56-EAED-4ACD-8E1E-F1045332E823}"/>
+    <hyperlink ref="E17" r:id="rId28" xr:uid="{CF4D4C2F-C785-4F16-BA1C-6604309AAAF9}"/>
+    <hyperlink ref="E16" r:id="rId29" xr:uid="{EBCF899E-F583-48FC-BC42-FB27757B2897}"/>
+    <hyperlink ref="E18" r:id="rId30" xr:uid="{0A692136-4D35-4679-978C-9BD71D79D951}"/>
+    <hyperlink ref="E19" r:id="rId31" xr:uid="{7587CAA5-1D5C-4564-906C-1DAE8161D970}"/>
+    <hyperlink ref="E21" r:id="rId32" display="https://aliexpress.ru/item/32871123420.html?spm=a2g0o.productlist.0.0.10143259Voypr5&amp;algo_pvid=d6a25cc4-348d-46ab-ac09-0a4208893c39&amp;algo_expid=d6a25cc4-348d-46ab-ac09-0a4208893c39-0&amp;btsid=0b8b15d415903263366875482e4389&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{3B67CB10-8FC7-409F-9331-BC34D5CC7D49}"/>
+    <hyperlink ref="E22:E30" r:id="rId33" display="https://aliexpress.ru/item/32871123420.html?spm=a2g0o.productlist.0.0.10143259Voypr5&amp;algo_pvid=d6a25cc4-348d-46ab-ac09-0a4208893c39&amp;algo_expid=d6a25cc4-348d-46ab-ac09-0a4208893c39-0&amp;btsid=0b8b15d415903263366875482e4389&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{9887CCC2-16B0-43FA-96A7-08AADB22BB91}"/>
+    <hyperlink ref="E31" r:id="rId34" display="https://aliexpress.ru/item/32829517578.html?spm=a2g0o.productlist.0.0.645644f3krXIQ4&amp;algo_pvid=05732255-54d6-4e48-add5-d449e4c9d191&amp;algo_expid=05732255-54d6-4e48-add5-d449e4c9d191-1&amp;btsid=0b8b035c15903275399571840ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6634B7FC-90AE-4D87-A88C-04705EEBA14C}"/>
+    <hyperlink ref="E32" r:id="rId35" display="https://aliexpress.ru/item/32829517578.html?spm=a2g0o.productlist.0.0.645644f3krXIQ4&amp;algo_pvid=05732255-54d6-4e48-add5-d449e4c9d191&amp;algo_expid=05732255-54d6-4e48-add5-d449e4c9d191-1&amp;btsid=0b8b035c15903275399571840ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{95210DA6-72FC-407E-8AEC-AA19126C71A6}"/>
+    <hyperlink ref="E33" r:id="rId36" display="https://aliexpress.ru/item/32964553793.html?spm=a2g0o.productlist.0.0.5d97578bOi5flh&amp;algo_pvid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774&amp;algo_expid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774-8&amp;btsid=0b8b035c15903276788503191ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{C997B260-ADAD-44C3-A201-4209C05A758F}"/>
+    <hyperlink ref="E34" r:id="rId37" display="https://aliexpress.ru/item/32964553793.html?spm=a2g0o.productlist.0.0.5d97578bOi5flh&amp;algo_pvid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774&amp;algo_expid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774-8&amp;btsid=0b8b035c15903276788503191ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{97A6FC3C-E51F-417E-8352-1707E81DB65A}"/>
+    <hyperlink ref="E36" r:id="rId38" display="https://aliexpress.ru/item/32964553793.html?spm=a2g0o.productlist.0.0.5d97578bOi5flh&amp;algo_pvid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774&amp;algo_expid=c29d0e39-a5d7-47d5-a5f2-c6a5af283774-8&amp;btsid=0b8b035c15903276788503191ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6BC4C072-CFA2-4B24-BFD8-5FC6392852B8}"/>
+    <hyperlink ref="E35" r:id="rId39" display="https://aliexpress.ru/item/33016966236.html?spm=a2g0o.productlist.0.0.786d4b8aaWhjxx&amp;algo_pvid=fe8c5866-3be0-4622-b634-cac42457f46b&amp;algo_expid=fe8c5866-3be0-4622-b634-cac42457f46b-9&amp;btsid=0b8b035c15903278444623684ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{97AAEEAE-3B99-42FA-9EE0-AFC9AD6F3576}"/>
+    <hyperlink ref="E37" r:id="rId40" display="https://aliexpress.ru/item/32903313311.html?spm=a2g0o.productlist.0.0.1a626bd5nLjCe2&amp;s=p&amp;ad_pvid=20200524064533383388000592670004654046_1&amp;algo_pvid=3df784c5-4f8f-4e17-a969-3a3c27617f16&amp;algo_expid=3df784c5-4f8f-4e17-a969-3a3c27617f16-0&amp;btsid=0b8b035c15903279329634318ea7d7&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{60C3C7FD-BCD2-401A-B8D0-6172A0B210BB}"/>
+    <hyperlink ref="E57" r:id="rId41" display="https://aliexpress.ru/item/1806565095.html?spm=a2g0o.productlist.0.0.61fa70a2zCcxj6&amp;algo_pvid=1f60d4f3-4400-4395-9714-95593c44edc0&amp;algo_expid=1f60d4f3-4400-4395-9714-95593c44edc0-1&amp;btsid=0b8b158f15903283283927096e9021&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{A92298A9-0E30-49FC-8200-29766B63D5A5}"/>
+    <hyperlink ref="E58" r:id="rId42" xr:uid="{5F20CDB2-0D71-4558-82BE-2CC1B39435A5}"/>
+    <hyperlink ref="E59" r:id="rId43" xr:uid="{E8BC7494-2FE5-44E0-993B-BEC8AD1010B9}"/>
+    <hyperlink ref="E60" r:id="rId44" xr:uid="{1B4D6578-4CD7-4C59-B7F2-ED449B0A75A9}"/>
+    <hyperlink ref="E63" r:id="rId45" display="https://aliexpress.ru/item/4000924304797.html?spm=a2g0o.productlist.0.0.16ba7b52haCScV&amp;s=p&amp;ad_pvid=20200524071024927259689806100004682763_7&amp;algo_pvid=468f6634-d576-448c-bc4d-a292fd9a2c23&amp;algo_expid=468f6634-d576-448c-bc4d-a292fd9a2c23-6&amp;btsid=0b8b037215903294244892876e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{7D8E5E7E-863B-439D-B84F-4BBCBEC46FA1}"/>
+    <hyperlink ref="E65" r:id="rId46" display="https://aliexpress.ru/item/33019390820.html?spm=a2g0o.productlist.0.0.15487729SHf9sX&amp;algo_pvid=f2e570de-5409-4661-a790-3a3cbdfdc271&amp;algo_expid=f2e570de-5409-4661-a790-3a3cbdfdc271-13&amp;btsid=0b8b037215903291916481538e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{4D5281AB-1812-46F6-954A-BC204A05D0B4}"/>
+    <hyperlink ref="E61" r:id="rId47" display="https://aliexpress.ru/item/32897651120.html?spm=a2g0o.productlist.0.0.2bec4f04tTOXvo&amp;s=p&amp;ad_pvid=20200524071153935045963939430004676651_1&amp;algo_pvid=81249de0-876a-430c-ab36-7dc95307fb1a&amp;algo_expid=81249de0-876a-430c-ab36-7dc95307fb1a-0&amp;btsid=0b8b037215903295130423525e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F8EEFE76-6942-4005-BF9A-E1C838BA84A9}"/>
+    <hyperlink ref="E62" r:id="rId48" display="https://aliexpress.ru/item/4000389879469.html?spm=a2g0o.productlist.0.0.3fee3943aDXyuh&amp;s=p&amp;ad_pvid=2020052407123414318638294008510004681611_1&amp;algo_pvid=295fbcd0-d85e-4f67-a5b6-7017f0533ad9&amp;algo_expid=295fbcd0-d85e-4f67-a5b6-7017f0533ad9-0&amp;btsid=0b8b037215903295546703980e0cee&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{F78D54CF-EF4B-4918-AF7F-821EC4B48D40}"/>
+    <hyperlink ref="E54" r:id="rId49" display="https://aliexpress.ru/item/33038600944.html?spm=a2g0o.productlist.0.0.419d2cdcRVEch1&amp;s=p&amp;ad_pvid=202005240721153859348858914580004687806_2&amp;algo_pvid=f9bcfdc6-e8e1-43cd-9146-ae05bd3293ea&amp;algo_expid=f9bcfdc6-e8e1-43cd-9146-ae05bd3293ea-1&amp;btsid=0b8b034e15903300752145706e6aef&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{A446FA79-4144-44EB-930B-E1053CB29305}"/>
+    <hyperlink ref="E50" r:id="rId50" xr:uid="{105BDBB3-ACE3-458A-9B59-7FB2720FCDCF}"/>
+    <hyperlink ref="E51:E53" r:id="rId51" display="https://aliexpress.ru/item/32878293371.html?spm=a2g0s.9042311.0.0.264d33edbISUGp" xr:uid="{F2748AED-2569-413B-AE6F-DAFAB986A9DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId52"/>
@@ -4557,167 +4684,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="8">
         <f>B2*4</f>
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="8">
         <v>5</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C13" si="0">B3*4</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="8">
         <v>15</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="8">
         <f>10+2+3+5</f>
         <v>20</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="20">
+      <c r="B14" s="34"/>
+      <c r="C14" s="8">
         <f xml:space="preserve"> SUM(C2:C13)</f>
         <v>320</v>
       </c>
@@ -4747,76 +4874,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="10">
         <v>0.22</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="8">
         <f>68000*B2</f>
         <v>14960</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="11">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C3" s="20">
-        <f t="shared" ref="C3:C5" si="0">68000*B3</f>
+      <c r="C3" s="8">
+        <f>68000*B3</f>
         <v>3468</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C4" s="20">
-        <f t="shared" si="0"/>
+      <c r="C4" s="8">
+        <f>68000*B4</f>
         <v>1972</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="10">
         <v>2E-3</v>
       </c>
-      <c r="C5" s="20">
-        <f t="shared" si="0"/>
+      <c r="C5" s="8">
+        <f>68000*B5</f>
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="20">
+      <c r="B6" s="34"/>
+      <c r="C6" s="8">
         <f>SUM(C2:C5)</f>
         <v>20536</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
+      <c r="B7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4831,7 +4958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2AA4D2-B735-4B57-AB8E-7E96A864771B}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -4850,20 +4977,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2" t="s">
         <v>143</v>
       </c>
@@ -4896,717 +5023,717 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="15">
         <f xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G3) / A3</f>
         <v>86.603187890202634</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="15">
         <f xml:space="preserve"> 99320 / (3100*0.5 + 3100 - K3) /A3</f>
         <v>52.150170648464162</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="15">
         <f xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G$17)/A3</f>
         <v>86.603187890202634</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="15">
         <f xml:space="preserve"> 99320 / (3100*0.5 + 3100 - H$17) /A3</f>
         <v>52.150170648464162</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G14" si="0">2120.12+H3+I3</f>
         <v>2728.16</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="13">
         <f>C22</f>
         <v>308.04000000000002</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="13">
         <f>D22</f>
         <v>300</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
         <f>2120.12+L3+M3</f>
         <v>2745.5</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="13">
         <f>C21</f>
         <v>325.38</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="13">
         <f>D21</f>
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="15">
         <f t="shared" ref="B4:B14" si="1" xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G4) / A4</f>
         <v>43.966356795042053</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="15">
         <f t="shared" ref="C4:C14" si="2" xml:space="preserve"> 99320 / (3100*0.5 + 3100 - K4) /A4</f>
         <v>27.71576550430861</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D14" si="3" xml:space="preserve"> 99320 / (3100*0.25 + 3100 - G$17)/A4</f>
         <v>43.301593945101317</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="15">
         <f t="shared" ref="E4:E14" si="4" xml:space="preserve"> 99320 / (3100*0.5 + 3100 - H$17) /A4</f>
         <v>26.075085324232081</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>2745.5</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="13">
         <f>C21</f>
         <v>325.38</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="13">
         <f>D21</f>
         <v>300</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K14" si="5">2120.12+L4+M4</f>
         <v>2858.24</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="13">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="13">
         <f>D20</f>
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="15">
         <f t="shared" si="1"/>
         <v>32.560945224700674</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="15">
         <f t="shared" si="2"/>
         <v>18.477177002872406</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="15">
         <f t="shared" si="3"/>
         <v>28.867729296734211</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="15">
         <f t="shared" si="4"/>
         <v>17.383390216154719</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>2858.24</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="13">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="13">
         <f>D20</f>
         <v>300</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
         <f t="shared" si="5"/>
         <v>2858.24</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="13">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="13">
         <f>D20</f>
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="15">
         <f t="shared" si="1"/>
         <v>24.420708918525506</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="15">
         <f t="shared" si="2"/>
         <v>16.561017645520852</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="15">
         <f t="shared" si="3"/>
         <v>21.650796972550658</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="15">
         <f t="shared" si="4"/>
         <v>13.03754266211604</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>2858.24</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="13">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="13">
         <f>D20</f>
         <v>300</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
         <f t="shared" si="5"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>19.536567134820405</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="15">
         <f t="shared" si="2"/>
         <v>13.248814116416682</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="15">
         <f t="shared" si="3"/>
         <v>17.320637578040525</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="15">
         <f t="shared" si="4"/>
         <v>10.430034129692832</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>2858.24</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="13">
         <f>C20</f>
         <v>438.12</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="13">
         <f>D20</f>
         <v>300</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13">
         <f t="shared" si="5"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>22.854123866958258</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="15">
         <f t="shared" si="2"/>
         <v>11.040678430347235</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="15">
         <f t="shared" si="3"/>
         <v>14.433864648367106</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="15">
         <f t="shared" si="4"/>
         <v>8.6916951080773597</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25">
+      <c r="J8" s="13"/>
+      <c r="K8" s="13">
         <f t="shared" si="5"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>19.589249028821364</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="15">
         <f t="shared" si="2"/>
         <v>9.463438654583344</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="15">
         <f t="shared" si="3"/>
         <v>12.371883984314662</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="15">
         <f t="shared" si="4"/>
         <v>7.4500243783520235</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
         <f t="shared" si="5"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>17.140592900218692</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="15">
         <f t="shared" si="2"/>
         <v>8.2805088227604262</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="15">
         <f t="shared" si="3"/>
         <v>10.825398486275329</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="15">
         <f t="shared" si="4"/>
         <v>6.5187713310580202</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13">
         <f t="shared" si="5"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>15.236082577972171</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="15">
         <f t="shared" si="2"/>
         <v>8.9046684059998018</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="15">
         <f t="shared" si="3"/>
         <v>9.6225764322447365</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="15">
         <f t="shared" si="4"/>
         <v>5.7944634053849065</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13">
         <f t="shared" si="5"/>
         <v>3410.7</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="13">
         <f>C18</f>
         <v>890.57999999999993</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>13.712474320174953</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="15">
         <f t="shared" si="2"/>
         <v>8.0142015653998211</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="15">
         <f t="shared" si="3"/>
         <v>8.6603187890202626</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="15">
         <f t="shared" si="4"/>
         <v>5.2150170648464158</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
         <f t="shared" si="5"/>
         <v>3410.7</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="13">
         <f>C18</f>
         <v>890.57999999999993</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>12.465885745613594</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="15">
         <f t="shared" si="2"/>
         <v>9.6125741606418682</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="15">
         <f t="shared" si="3"/>
         <v>7.8730170809275117</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>4.7409246044058326</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13">
         <f t="shared" si="5"/>
         <v>3710.7</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="13">
         <f>C18</f>
         <v>890.57999999999993</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="13">
         <f>D18</f>
         <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>11.427061933479129</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="15">
         <f t="shared" si="2"/>
         <v>8.8115263139217124</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="15">
         <f t="shared" si="3"/>
         <v>7.2169323241835528</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>4.3458475540386798</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="13">
         <f t="shared" si="0"/>
         <v>3150.6959999999999</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="13">
         <f>C19</f>
         <v>630.57600000000002</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="13">
         <f>D19</f>
         <v>400</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13">
         <f t="shared" si="5"/>
         <v>3710.7</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="13">
         <f>C18</f>
         <v>890.57999999999993</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="13">
         <f>D18</f>
         <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="13">
         <v>2970.58</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="4">
         <f>B17/A17</f>
         <v>2970.58</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="4">
         <v>1000</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="G17" s="26">
+      <c r="E17" s="13"/>
+      <c r="G17" s="14">
         <f>2120.12+300+C22</f>
         <v>2728.16</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="14">
         <f>2120.12+D21+C21</f>
         <v>2745.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="13">
         <v>4452.8999999999996</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="4">
         <f t="shared" ref="C18:C24" si="6">B18/A18</f>
         <v>890.57999999999993</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="4">
         <v>700</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="13">
         <v>6305.76</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="4">
         <f t="shared" si="6"/>
         <v>630.57600000000002</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="4">
         <v>400</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>25</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="13">
         <v>10953</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="4">
         <f t="shared" si="6"/>
         <v>438.12</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="4">
         <v>300</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>50</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="13">
         <v>16269</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="4">
         <f t="shared" si="6"/>
         <v>325.38</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="4">
         <v>300</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>75</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="13">
         <v>23103</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="4">
         <f t="shared" si="6"/>
         <v>308.04000000000002</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="4">
         <v>300</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>100</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="13">
         <v>28114.799999999999</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="4">
         <f t="shared" si="6"/>
         <v>281.14799999999997</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="4">
         <v>250</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>150</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="13">
         <v>40872.6</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="4">
         <f t="shared" si="6"/>
         <v>272.48399999999998</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="4">
         <v>250</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
